--- a/LR3/table_1_81.xlsx
+++ b/LR3/table_1_81.xlsx
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -238,9 +238,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -538,21 +535,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="11" customWidth="1"/>
-    <col min="8" max="11" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12">
+      <c r="A1" s="11">
         <v>81</v>
       </c>
       <c r="B1" s="4"/>
@@ -582,10 +585,10 @@
       <c r="E2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -602,1593 +605,1593 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>70</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <f>$A$1*1.1</f>
         <v>89.100000000000009</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <f>C3*D3</f>
         <v>6237.0000000000009</v>
       </c>
-      <c r="F3" s="14">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="14">
+      <c r="F3" s="13">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="13">
         <v>44805</v>
       </c>
-      <c r="H3" s="12">
-        <f>IF(G3&lt;=F3,0,G3-F3)</f>
+      <c r="H3" s="11">
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="12">
-        <v>10</v>
-      </c>
-      <c r="J3" s="12">
+      <c r="I3" s="11">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11">
         <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <f>E3+J3</f>
         <v>6237.0000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <f t="shared" ref="D4:D38" si="0">$A$1*1.1</f>
         <v>89.100000000000009</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>6192.4500000000007</v>
       </c>
-      <c r="F4" s="14">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="F4" s="13">
+        <f t="shared" ref="F4:F38" si="2">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G4" s="13">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="12">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
+      <c r="H4" s="11">
+        <f t="shared" ref="H4:H38" si="3">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="12">
-        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
+      <c r="J4" s="11">
+        <f t="shared" ref="J4:J38" si="4">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="12">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+      <c r="K4" s="11">
+        <f t="shared" ref="K4:K38" si="5">E4+J4</f>
         <v>6192.4500000000007</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <f>C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E5" s="11">
         <f t="shared" si="1"/>
         <v>6147.9000000000005</v>
       </c>
-      <c r="F5" s="14">
-        <f t="shared" ref="F5:F38" si="5">F4</f>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="F5" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="13">
         <f t="shared" ref="G5:G38" si="6">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="12">
-        <f t="shared" si="2"/>
+      <c r="H5" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <f t="shared" ref="I5:I38" si="7">I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="12">
-        <f t="shared" si="3"/>
+      <c r="J5" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K5" s="12">
-        <f t="shared" si="4"/>
+      <c r="K5" s="11">
+        <f t="shared" si="5"/>
         <v>6147.9000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <f t="shared" ref="C6:C38" si="8">C5-0.5</f>
         <v>68.5</v>
       </c>
-      <c r="D6" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E6" s="11">
         <f t="shared" si="1"/>
         <v>6103.35</v>
       </c>
-      <c r="F6" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="F6" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="13">
         <f t="shared" si="6"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="12">
-        <f t="shared" si="2"/>
+      <c r="H6" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I6" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="12">
-        <f t="shared" si="3"/>
+      <c r="I6" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K6" s="12">
-        <f t="shared" si="4"/>
+      <c r="K6" s="11">
+        <f t="shared" si="5"/>
         <v>6103.35</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
-      <c r="D7" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E7" s="11">
         <f t="shared" si="1"/>
         <v>6058.8</v>
       </c>
-      <c r="F7" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="14">
+      <c r="F7" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="13">
         <f t="shared" si="6"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="12">
-        <f t="shared" si="2"/>
+      <c r="H7" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I7" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="12">
-        <f t="shared" si="3"/>
+      <c r="I7" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K7" s="12">
-        <f t="shared" si="4"/>
+      <c r="K7" s="11">
+        <f t="shared" si="5"/>
         <v>6058.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <f t="shared" si="8"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E8" s="11">
         <f t="shared" si="1"/>
         <v>6014.2500000000009</v>
       </c>
-      <c r="F8" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="F8" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="13">
         <f t="shared" si="6"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="12">
-        <f t="shared" si="2"/>
+      <c r="H8" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I8" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="12">
-        <f t="shared" si="3"/>
+      <c r="I8" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K8" s="12">
-        <f t="shared" si="4"/>
+      <c r="K8" s="11">
+        <f t="shared" si="5"/>
         <v>6014.2500000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <f t="shared" si="8"/>
         <v>67</v>
       </c>
-      <c r="D9" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E9" s="11">
         <f t="shared" si="1"/>
         <v>5969.7000000000007</v>
       </c>
-      <c r="F9" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="F9" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="13">
         <f t="shared" si="6"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="12">
-        <f t="shared" si="2"/>
+      <c r="H9" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I9" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="12">
-        <f t="shared" si="3"/>
+      <c r="I9" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K9" s="12">
-        <f t="shared" si="4"/>
+      <c r="K9" s="11">
+        <f t="shared" si="5"/>
         <v>5969.7000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <f t="shared" si="8"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
         <v>5925.1500000000005</v>
       </c>
-      <c r="F10" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="F10" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="13">
         <f t="shared" si="6"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="12">
-        <f t="shared" si="2"/>
+      <c r="H10" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I10" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="12">
-        <f t="shared" si="3"/>
+      <c r="I10" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K10" s="12">
-        <f t="shared" si="4"/>
+      <c r="K10" s="11">
+        <f t="shared" si="5"/>
         <v>5925.1500000000005</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <f t="shared" si="8"/>
         <v>66</v>
       </c>
-      <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E11" s="11">
         <f t="shared" si="1"/>
         <v>5880.6</v>
       </c>
-      <c r="F11" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="2"/>
+      <c r="F11" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I11" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="3"/>
+      <c r="I11" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K11" s="12">
-        <f t="shared" si="4"/>
+      <c r="K11" s="11">
+        <f t="shared" si="5"/>
         <v>5880.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <f t="shared" si="8"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E12" s="11">
         <f t="shared" si="1"/>
         <v>5836.05</v>
       </c>
-      <c r="F12" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="F12" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="13">
         <f t="shared" si="6"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="12">
-        <f t="shared" si="2"/>
+      <c r="H12" s="11">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I12" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="12">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="12">
-        <f t="shared" si="4"/>
+      <c r="I12" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="5"/>
         <v>5846.05</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11">
         <f t="shared" si="8"/>
         <v>65</v>
       </c>
-      <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E13" s="11">
         <f t="shared" si="1"/>
         <v>5791.5000000000009</v>
       </c>
-      <c r="F13" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="14">
+      <c r="F13" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="13">
         <f t="shared" si="6"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="12">
-        <f t="shared" si="2"/>
+      <c r="H13" s="11">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I13" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="12">
-        <f t="shared" si="3"/>
+      <c r="I13" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="K13" s="12">
-        <f t="shared" si="4"/>
+      <c r="K13" s="11">
+        <f t="shared" si="5"/>
         <v>5811.5000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <f t="shared" si="8"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E14" s="11">
         <f t="shared" si="1"/>
         <v>5746.9500000000007</v>
       </c>
-      <c r="F14" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="14">
+      <c r="F14" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="13">
         <f t="shared" si="6"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="12">
-        <f t="shared" si="2"/>
+      <c r="H14" s="11">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I14" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="12">
-        <f t="shared" si="3"/>
+      <c r="I14" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="K14" s="12">
-        <f t="shared" si="4"/>
+      <c r="K14" s="11">
+        <f t="shared" si="5"/>
         <v>5776.9500000000007</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="D15" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E15" s="11">
         <f t="shared" si="1"/>
         <v>5702.4000000000005</v>
       </c>
-      <c r="F15" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="14">
+      <c r="F15" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="13">
         <f t="shared" si="6"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="12">
-        <f t="shared" si="2"/>
+      <c r="H15" s="11">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I15" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" si="3"/>
+      <c r="I15" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="K15" s="12">
-        <f t="shared" si="4"/>
+      <c r="K15" s="11">
+        <f t="shared" si="5"/>
         <v>5742.4000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <f t="shared" si="8"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E16" s="11">
         <f t="shared" si="1"/>
         <v>5657.85</v>
       </c>
-      <c r="F16" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="14">
+      <c r="F16" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="13">
         <f t="shared" si="6"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="12">
-        <f t="shared" si="2"/>
+      <c r="H16" s="11">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I16" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="12">
-        <f t="shared" si="3"/>
+      <c r="I16" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="11">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="K16" s="12">
-        <f t="shared" si="4"/>
+      <c r="K16" s="11">
+        <f t="shared" si="5"/>
         <v>5707.85</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="D17" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E17" s="11">
         <f t="shared" si="1"/>
         <v>5613.3</v>
       </c>
-      <c r="F17" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="14">
+      <c r="F17" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="13">
         <f t="shared" si="6"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="12">
-        <f t="shared" si="2"/>
+      <c r="H17" s="11">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="I17" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="12">
-        <f t="shared" si="3"/>
+      <c r="I17" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="K17" s="12">
-        <f t="shared" si="4"/>
+      <c r="K17" s="11">
+        <f t="shared" si="5"/>
         <v>5673.3</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <f t="shared" si="8"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E18" s="11">
         <f t="shared" si="1"/>
         <v>5568.7500000000009</v>
       </c>
-      <c r="F18" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="14">
+      <c r="F18" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="13">
         <f t="shared" si="6"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="12">
-        <f t="shared" si="2"/>
+      <c r="H18" s="11">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I18" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="12">
-        <f t="shared" si="3"/>
+      <c r="I18" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="K18" s="12">
-        <f t="shared" si="4"/>
+      <c r="K18" s="11">
+        <f t="shared" si="5"/>
         <v>5638.7500000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <f t="shared" si="8"/>
         <v>62</v>
       </c>
-      <c r="D19" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E19" s="11">
         <f t="shared" si="1"/>
         <v>5524.2000000000007</v>
       </c>
-      <c r="F19" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="14">
+      <c r="F19" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="13">
         <f t="shared" si="6"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="12">
-        <f t="shared" si="2"/>
+      <c r="H19" s="11">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="I19" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="12">
-        <f t="shared" si="3"/>
+      <c r="I19" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="K19" s="12">
-        <f t="shared" si="4"/>
+      <c r="K19" s="11">
+        <f t="shared" si="5"/>
         <v>5604.2000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <f t="shared" si="8"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="D20" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E20" s="11">
         <f t="shared" si="1"/>
         <v>5479.6500000000005</v>
       </c>
-      <c r="F20" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="14">
+      <c r="F20" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="13">
         <f t="shared" si="6"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="12">
-        <f t="shared" si="2"/>
+      <c r="H20" s="11">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I20" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="12">
-        <f t="shared" si="3"/>
+      <c r="I20" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="K20" s="12">
-        <f t="shared" si="4"/>
+      <c r="K20" s="11">
+        <f t="shared" si="5"/>
         <v>5569.6500000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <f t="shared" si="8"/>
         <v>61</v>
       </c>
-      <c r="D21" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="D21" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E21" s="11">
         <f t="shared" si="1"/>
         <v>5435.1</v>
       </c>
-      <c r="F21" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="14">
+      <c r="F21" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="13">
         <f t="shared" si="6"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="12">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="12">
-        <f t="shared" si="3"/>
+      <c r="H21" s="11">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="K21" s="12">
-        <f t="shared" si="4"/>
+      <c r="K21" s="11">
+        <f t="shared" si="5"/>
         <v>5535.1</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <f t="shared" si="8"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="D22" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E22" s="11">
         <f t="shared" si="1"/>
         <v>5390.55</v>
       </c>
-      <c r="F22" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="14">
+      <c r="F22" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="13">
         <f t="shared" si="6"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="12">
-        <f t="shared" si="2"/>
+      <c r="H22" s="11">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="I22" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="12">
-        <f t="shared" si="3"/>
+      <c r="I22" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="K22" s="12">
-        <f t="shared" si="4"/>
+      <c r="K22" s="11">
+        <f t="shared" si="5"/>
         <v>5500.55</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="D23" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E23" s="11">
         <f t="shared" si="1"/>
         <v>5346.0000000000009</v>
       </c>
-      <c r="F23" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="14">
+      <c r="F23" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="13">
         <f t="shared" si="6"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="12">
-        <f t="shared" si="2"/>
+      <c r="H23" s="11">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I23" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="12">
-        <f t="shared" si="3"/>
+      <c r="I23" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="11">
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="K23" s="12">
-        <f t="shared" si="4"/>
+      <c r="K23" s="11">
+        <f t="shared" si="5"/>
         <v>5466.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <f t="shared" si="8"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="D24" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E24" s="11">
         <f t="shared" si="1"/>
         <v>5301.4500000000007</v>
       </c>
-      <c r="F24" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="14">
+      <c r="F24" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="13">
         <f t="shared" si="6"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="12">
-        <f t="shared" si="2"/>
+      <c r="H24" s="11">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="I24" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="12">
-        <f t="shared" si="3"/>
+      <c r="I24" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="K24" s="12">
-        <f t="shared" si="4"/>
+      <c r="K24" s="11">
+        <f t="shared" si="5"/>
         <v>5431.4500000000007</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="D25" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E25" s="12">
+      <c r="D25" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E25" s="11">
         <f t="shared" si="1"/>
         <v>5256.9000000000005</v>
       </c>
-      <c r="F25" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="14">
+      <c r="F25" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="13">
         <f t="shared" si="6"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="12">
-        <f t="shared" si="2"/>
+      <c r="H25" s="11">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="I25" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="12">
-        <f t="shared" si="3"/>
+      <c r="I25" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="K25" s="12">
-        <f t="shared" si="4"/>
+      <c r="K25" s="11">
+        <f t="shared" si="5"/>
         <v>5396.9000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <f t="shared" si="8"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E26" s="12">
+      <c r="D26" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E26" s="11">
         <f t="shared" si="1"/>
         <v>5212.3500000000004</v>
       </c>
-      <c r="F26" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="14">
+      <c r="F26" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="13">
         <f t="shared" si="6"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="12">
-        <f t="shared" si="2"/>
+      <c r="H26" s="11">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="I26" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="12">
-        <f t="shared" si="3"/>
+      <c r="I26" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="11">
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="K26" s="12">
-        <f t="shared" si="4"/>
+      <c r="K26" s="11">
+        <f t="shared" si="5"/>
         <v>5362.35</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <f t="shared" si="8"/>
         <v>58</v>
       </c>
-      <c r="D27" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E27" s="12">
+      <c r="D27" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E27" s="11">
         <f t="shared" si="1"/>
         <v>5167.8</v>
       </c>
-      <c r="F27" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="14">
+      <c r="F27" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="13">
         <f t="shared" si="6"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="12">
-        <f t="shared" si="2"/>
+      <c r="H27" s="11">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="I27" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="12">
-        <f t="shared" si="3"/>
+      <c r="I27" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="11">
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="K27" s="12">
-        <f t="shared" si="4"/>
+      <c r="K27" s="11">
+        <f t="shared" si="5"/>
         <v>5327.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <f t="shared" si="8"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="D28" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E28" s="11">
         <f t="shared" si="1"/>
         <v>5123.2500000000009</v>
       </c>
-      <c r="F28" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="14">
+      <c r="F28" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="13">
         <f t="shared" si="6"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="12">
-        <f t="shared" si="2"/>
+      <c r="H28" s="11">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="I28" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="12">
-        <f t="shared" si="3"/>
+      <c r="I28" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="11">
+        <f t="shared" si="4"/>
         <v>170</v>
       </c>
-      <c r="K28" s="12">
-        <f t="shared" si="4"/>
+      <c r="K28" s="11">
+        <f t="shared" si="5"/>
         <v>5293.2500000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <f t="shared" si="8"/>
         <v>57</v>
       </c>
-      <c r="D29" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="D29" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E29" s="11">
         <f t="shared" si="1"/>
         <v>5078.7000000000007</v>
       </c>
-      <c r="F29" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="14">
+      <c r="F29" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="13">
         <f t="shared" si="6"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="12">
-        <f t="shared" si="2"/>
+      <c r="H29" s="11">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="I29" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="12">
-        <f t="shared" si="3"/>
+      <c r="I29" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="11">
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="K29" s="12">
-        <f t="shared" si="4"/>
+      <c r="K29" s="11">
+        <f t="shared" si="5"/>
         <v>5258.7000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <f t="shared" si="8"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E30" s="12">
+      <c r="D30" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E30" s="11">
         <f t="shared" si="1"/>
         <v>5034.1500000000005</v>
       </c>
-      <c r="F30" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="14">
+      <c r="F30" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="13">
         <f t="shared" si="6"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="12">
-        <f t="shared" si="2"/>
+      <c r="H30" s="11">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="I30" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="12">
-        <f t="shared" si="3"/>
+      <c r="I30" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="11">
+        <f t="shared" si="4"/>
         <v>190</v>
       </c>
-      <c r="K30" s="12">
-        <f t="shared" si="4"/>
+      <c r="K30" s="11">
+        <f t="shared" si="5"/>
         <v>5224.1500000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="D31" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="D31" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E31" s="11">
         <f t="shared" si="1"/>
         <v>4989.6000000000004</v>
       </c>
-      <c r="F31" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="14">
+      <c r="F31" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="13">
         <f t="shared" si="6"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="12">
-        <f t="shared" si="2"/>
+      <c r="H31" s="11">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="I31" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="12">
-        <f t="shared" si="3"/>
+      <c r="I31" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="11">
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="K31" s="12">
-        <f t="shared" si="4"/>
+      <c r="K31" s="11">
+        <f t="shared" si="5"/>
         <v>5189.6000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <f t="shared" si="8"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E32" s="12">
+      <c r="D32" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E32" s="11">
         <f t="shared" si="1"/>
         <v>4945.05</v>
       </c>
-      <c r="F32" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="14">
+      <c r="F32" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="13">
         <f t="shared" si="6"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="12">
-        <f t="shared" si="2"/>
+      <c r="H32" s="11">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="I32" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="12">
-        <f t="shared" si="3"/>
+      <c r="I32" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="11">
+        <f t="shared" si="4"/>
         <v>210</v>
       </c>
-      <c r="K32" s="12">
-        <f t="shared" si="4"/>
+      <c r="K32" s="11">
+        <f t="shared" si="5"/>
         <v>5155.05</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <f t="shared" si="8"/>
         <v>55</v>
       </c>
-      <c r="D33" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E33" s="12">
+      <c r="D33" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E33" s="11">
         <f t="shared" si="1"/>
         <v>4900.5000000000009</v>
       </c>
-      <c r="F33" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="14">
+      <c r="F33" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="13">
         <f t="shared" si="6"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="12">
-        <f t="shared" si="2"/>
+      <c r="H33" s="11">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="I33" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="12">
-        <f t="shared" si="3"/>
+      <c r="I33" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="11">
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
-      <c r="K33" s="12">
-        <f t="shared" si="4"/>
+      <c r="K33" s="11">
+        <f t="shared" si="5"/>
         <v>5120.5000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <f t="shared" si="8"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E34" s="12">
+      <c r="D34" s="11">
+        <f t="shared" si="0"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E34" s="11">
         <f t="shared" si="1"/>
         <v>4855.9500000000007</v>
       </c>
-      <c r="F34" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="14">
+      <c r="F34" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="13">
         <f t="shared" si="6"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="12">
-        <f t="shared" si="2"/>
+      <c r="H34" s="11">
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="I34" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="12">
-        <f t="shared" si="3"/>
+      <c r="I34" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="11">
+        <f t="shared" si="4"/>
         <v>230</v>
       </c>
-      <c r="K34" s="12">
-        <f t="shared" si="4"/>
+      <c r="K34" s="11">
+        <f t="shared" si="5"/>
         <v>5085.9500000000007</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
-      <c r="D35" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E35" s="12">
-        <f t="shared" si="1"/>
-        <v>4811.4000000000005</v>
-      </c>
-      <c r="F35" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="14">
+      <c r="D35" s="11">
+        <f>$A$1*1.1/2</f>
+        <v>44.550000000000004</v>
+      </c>
+      <c r="E35" s="11">
+        <f t="shared" si="1"/>
+        <v>2405.7000000000003</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="13">
         <f t="shared" si="6"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="12">
-        <f t="shared" si="2"/>
+      <c r="H35" s="11">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="I35" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="12">
-        <f t="shared" si="3"/>
+      <c r="I35" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="11">
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="K35" s="12">
-        <f t="shared" si="4"/>
-        <v>5051.4000000000005</v>
+      <c r="K35" s="11">
+        <f t="shared" si="5"/>
+        <v>2645.7000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <f t="shared" si="8"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E36" s="12">
-        <f t="shared" si="1"/>
-        <v>4766.8500000000004</v>
-      </c>
-      <c r="F36" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="14">
+      <c r="D36" s="11">
+        <f t="shared" ref="D36:D38" si="9">$A$1*1.1/2</f>
+        <v>44.550000000000004</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" si="1"/>
+        <v>2383.4250000000002</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="13">
         <f t="shared" si="6"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="12">
-        <f t="shared" si="2"/>
+      <c r="H36" s="11">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="I36" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="12">
-        <f t="shared" si="3"/>
+      <c r="I36" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="11">
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="K36" s="12">
-        <f t="shared" si="4"/>
-        <v>5016.8500000000004</v>
+      <c r="K36" s="11">
+        <f t="shared" si="5"/>
+        <v>2633.4250000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <f t="shared" si="8"/>
         <v>53</v>
       </c>
-      <c r="D37" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E37" s="12">
-        <f t="shared" si="1"/>
-        <v>4722.3</v>
-      </c>
-      <c r="F37" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="14">
+      <c r="D37" s="11">
+        <f t="shared" si="9"/>
+        <v>44.550000000000004</v>
+      </c>
+      <c r="E37" s="11">
+        <f t="shared" si="1"/>
+        <v>2361.15</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="13">
         <f t="shared" si="6"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="12">
-        <f t="shared" si="2"/>
+      <c r="H37" s="11">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="I37" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="12">
-        <f t="shared" si="3"/>
+      <c r="I37" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="11">
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
-      <c r="K37" s="12">
-        <f t="shared" si="4"/>
-        <v>4982.3</v>
+      <c r="K37" s="11">
+        <f t="shared" si="5"/>
+        <v>2621.15</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="12">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="E38" s="12">
-        <f t="shared" si="1"/>
-        <v>4677.75</v>
-      </c>
-      <c r="F38" s="14">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="14">
+      <c r="D38" s="11">
+        <f t="shared" si="9"/>
+        <v>44.550000000000004</v>
+      </c>
+      <c r="E38" s="11">
+        <f t="shared" si="1"/>
+        <v>2338.875</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="13">
         <f t="shared" si="6"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="12">
-        <f t="shared" si="2"/>
+      <c r="H38" s="11">
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="I38" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="12">
-        <f t="shared" si="3"/>
+      <c r="I38" s="11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="11">
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
-      <c r="K38" s="12">
-        <f t="shared" si="4"/>
-        <v>4947.75</v>
+      <c r="K38" s="11">
+        <f t="shared" si="5"/>
+        <v>2608.875</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="7"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2200,8 +2203,8 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2213,13 +2216,13 @@
         <v>46</v>
       </c>
       <c r="C41" s="1">
-        <f>SUM(K3:K38)</f>
-        <v>200245.5</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>190756</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2236,8 +2239,8 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2254,8 +2257,8 @@
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2272,8 +2275,8 @@
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>

--- a/LR3/table_1_81.xlsx
+++ b/LR3/table_1_81.xlsx
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="82" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
